--- a/Back_end_python/db/etnia.xlsx
+++ b/Back_end_python/db/etnia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\onleonel\Escritorio\geoportal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenin\Documents\GitHub\Proyecto_python\Back_end_python\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEC2DD0-A6B3-4BFE-86CA-208FEDE9B4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0759E2-91D2-425D-9681-8D9040754421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Se perciben indígena" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Censo de Población y Vivienda El Salvador 2024</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>Población por departamento según autoidentificación indígena</t>
-  </si>
-  <si>
-    <t>Pueblo indígena con el que se identifica</t>
   </si>
 </sst>
 </file>
@@ -148,7 +145,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,21 +208,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -262,18 +250,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -282,20 +270,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -639,7 +617,7 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
@@ -647,23 +625,23 @@
     <col min="6" max="6" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:47" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="2:47" ht="30.75" customHeight="1">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="2:47" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="2:47" ht="41.25" customHeight="1">
+      <c r="B2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -706,7 +684,7 @@
       <c r="AT2" s="5"/>
       <c r="AU2" s="5"/>
     </row>
-    <row r="3" spans="2:47" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:47" ht="33" customHeight="1">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -723,7 +701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:47" ht="15.75">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -740,7 +718,7 @@
         <v>347349</v>
       </c>
     </row>
-    <row r="5" spans="2:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:47" ht="15.75">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -757,7 +735,7 @@
         <v>542729</v>
       </c>
     </row>
-    <row r="6" spans="2:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:47" ht="15.75">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -775,7 +753,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="2:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:47" ht="15.75">
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
@@ -792,7 +770,7 @@
         <v>184388</v>
       </c>
     </row>
-    <row r="8" spans="2:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:47" ht="15.75">
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
@@ -809,7 +787,7 @@
         <v>745464</v>
       </c>
     </row>
-    <row r="9" spans="2:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:47" ht="15.75">
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
@@ -826,7 +804,7 @@
         <v>1539596</v>
       </c>
     </row>
-    <row r="10" spans="2:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:47" ht="15.75">
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
@@ -843,7 +821,7 @@
         <v>244049</v>
       </c>
     </row>
-    <row r="11" spans="2:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:47" ht="15.75">
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
@@ -860,7 +838,7 @@
         <v>315957</v>
       </c>
     </row>
-    <row r="12" spans="2:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:47" ht="15.75">
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -877,7 +855,7 @@
         <v>141530</v>
       </c>
     </row>
-    <row r="13" spans="2:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:47" ht="15.75">
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
@@ -894,7 +872,7 @@
         <v>158089</v>
       </c>
     </row>
-    <row r="14" spans="2:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:47" ht="15.75">
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
@@ -911,7 +889,7 @@
         <v>323829</v>
       </c>
     </row>
-    <row r="15" spans="2:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:47" ht="15.75">
       <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
@@ -928,7 +906,7 @@
         <v>441241</v>
       </c>
     </row>
-    <row r="16" spans="2:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:47" ht="15.75">
       <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
@@ -945,7 +923,7 @@
         <v>169104</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="15.75">
       <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
@@ -962,7 +940,7 @@
         <v>222427</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="15.75">
       <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
@@ -979,14 +957,14 @@
         <v>5843394</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+    <row r="19" spans="2:6">
+      <c r="B19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1000,13 +978,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCA4D42-C694-440B-B99B-0C188CD7D2E2}">
-  <dimension ref="B1:O19"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="7" width="11.140625" bestFit="1" customWidth="1"/>
@@ -1015,522 +993,523 @@
     <col min="14" max="14" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:13" ht="67.5" thickTop="1" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" thickTop="1">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>110</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1309</v>
+      </c>
+      <c r="D3" s="2">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>179</v>
+      </c>
+      <c r="F3" s="2">
+        <v>227</v>
+      </c>
+      <c r="G3" s="2">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-    </row>
-    <row r="2" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-    </row>
-    <row r="3" spans="2:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2">
+        <v>117</v>
+      </c>
+      <c r="L3" s="2">
+        <v>370</v>
+      </c>
+      <c r="M3" s="2">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>214</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1849</v>
+      </c>
+      <c r="D4" s="2">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2">
+        <v>636</v>
+      </c>
+      <c r="F4" s="2">
+        <v>501</v>
+      </c>
+      <c r="G4" s="2">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="J4" s="2">
+        <v>5</v>
+      </c>
+      <c r="K4" s="2">
+        <v>323</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1082</v>
+      </c>
+      <c r="M4" s="2">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>143</v>
+      </c>
+      <c r="C5" s="2">
+        <v>9016</v>
+      </c>
+      <c r="D5" s="2">
         <v>25</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2">
-        <v>110</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1309</v>
-      </c>
-      <c r="E4" s="2">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2">
-        <v>179</v>
-      </c>
-      <c r="G4" s="2">
-        <v>227</v>
-      </c>
-      <c r="H4" s="2">
-        <v>14</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>5</v>
-      </c>
-      <c r="L4" s="2">
-        <v>117</v>
-      </c>
-      <c r="M4" s="2">
-        <v>370</v>
-      </c>
-      <c r="N4" s="2">
-        <v>2343</v>
-      </c>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2">
-        <v>214</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1849</v>
-      </c>
       <c r="E5" s="2">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="F5" s="2">
-        <v>636</v>
+        <v>155</v>
       </c>
       <c r="G5" s="2">
-        <v>501</v>
+        <v>9</v>
       </c>
       <c r="H5" s="2">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I5" s="2">
         <v>3</v>
       </c>
       <c r="J5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K5" s="2">
-        <v>5</v>
+        <v>131</v>
       </c>
       <c r="L5" s="2">
-        <v>323</v>
+        <v>627</v>
       </c>
       <c r="M5" s="2">
-        <v>1082</v>
-      </c>
-      <c r="N5" s="2">
-        <v>4657</v>
-      </c>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+        <v>10322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>103</v>
+      </c>
+      <c r="C6" s="2">
+        <v>326</v>
+      </c>
+      <c r="D6" s="2">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
-        <v>143</v>
-      </c>
-      <c r="D6" s="2">
-        <v>9016</v>
-      </c>
       <c r="E6" s="2">
-        <v>25</v>
+        <v>227</v>
       </c>
       <c r="F6" s="2">
-        <v>208</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="H6" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
         <v>2</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
+        <v>58</v>
+      </c>
+      <c r="L6" s="2">
+        <v>145</v>
+      </c>
+      <c r="M6" s="2">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
+        <v>779</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3717</v>
+      </c>
+      <c r="D7" s="2">
+        <v>82</v>
+      </c>
+      <c r="E7" s="2">
+        <v>660</v>
+      </c>
+      <c r="F7" s="2">
+        <v>377</v>
+      </c>
+      <c r="G7" s="2">
+        <v>19</v>
+      </c>
+      <c r="H7" s="2">
         <v>3</v>
-      </c>
-      <c r="K6" s="2">
-        <v>3</v>
-      </c>
-      <c r="L6" s="2">
-        <v>131</v>
-      </c>
-      <c r="M6" s="2">
-        <v>627</v>
-      </c>
-      <c r="N6" s="2">
-        <v>10322</v>
-      </c>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2">
-        <v>103</v>
-      </c>
-      <c r="D7" s="2">
-        <v>326</v>
-      </c>
-      <c r="E7" s="2">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2">
-        <v>227</v>
-      </c>
-      <c r="G7" s="2">
-        <v>27</v>
-      </c>
-      <c r="H7" s="2">
-        <v>4</v>
       </c>
       <c r="I7" s="2">
         <v>2</v>
       </c>
       <c r="J7" s="2">
+        <v>8</v>
+      </c>
+      <c r="K7" s="2">
+        <v>453</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1090</v>
+      </c>
+      <c r="M7" s="2">
+        <v>7190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2134</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9317</v>
+      </c>
+      <c r="D8" s="2">
+        <v>182</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1356</v>
+      </c>
+      <c r="F8" s="2">
+        <v>620</v>
+      </c>
+      <c r="G8" s="2">
+        <v>71</v>
+      </c>
+      <c r="H8" s="2">
+        <v>13</v>
+      </c>
+      <c r="I8" s="2">
+        <v>10</v>
+      </c>
+      <c r="J8" s="2">
+        <v>81</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1288</v>
+      </c>
+      <c r="L8" s="2">
+        <v>3431</v>
+      </c>
+      <c r="M8" s="2">
+        <v>18503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2">
+        <v>95</v>
+      </c>
+      <c r="C9" s="2">
+        <v>538</v>
+      </c>
+      <c r="D9" s="2">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2">
+        <v>101</v>
+      </c>
+      <c r="F9" s="2">
+        <v>36</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
         <v>0</v>
       </c>
-      <c r="K7" s="2">
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>89</v>
+      </c>
+      <c r="L9" s="2">
+        <v>171</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>152</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1126</v>
+      </c>
+      <c r="D10" s="2">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2">
+        <v>139</v>
+      </c>
+      <c r="F10" s="2">
+        <v>56</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
         <v>2</v>
       </c>
-      <c r="L7" s="2">
-        <v>58</v>
-      </c>
-      <c r="M7" s="2">
-        <v>145</v>
-      </c>
-      <c r="N7" s="2">
-        <v>902</v>
-      </c>
-      <c r="O7" s="7"/>
-    </row>
-    <row r="8" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="K10" s="2">
+        <v>186</v>
+      </c>
+      <c r="L10" s="2">
+        <v>378</v>
+      </c>
+      <c r="M10" s="2">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2">
+        <v>104</v>
+      </c>
+      <c r="C11" s="2">
+        <v>122</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>24</v>
+      </c>
+      <c r="F11" s="2">
         <v>10</v>
       </c>
-      <c r="C8" s="2">
-        <v>779</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3717</v>
-      </c>
-      <c r="E8" s="2">
-        <v>82</v>
-      </c>
-      <c r="F8" s="2">
-        <v>660</v>
-      </c>
-      <c r="G8" s="2">
-        <v>377</v>
-      </c>
-      <c r="H8" s="2">
-        <v>19</v>
-      </c>
-      <c r="I8" s="2">
-        <v>3</v>
-      </c>
-      <c r="J8" s="2">
-        <v>2</v>
-      </c>
-      <c r="K8" s="2">
-        <v>8</v>
-      </c>
-      <c r="L8" s="2">
-        <v>453</v>
-      </c>
-      <c r="M8" s="2">
-        <v>1090</v>
-      </c>
-      <c r="N8" s="2">
-        <v>7190</v>
-      </c>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2134</v>
-      </c>
-      <c r="D9" s="2">
-        <v>9317</v>
-      </c>
-      <c r="E9" s="2">
-        <v>182</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1356</v>
-      </c>
-      <c r="G9" s="2">
-        <v>620</v>
-      </c>
-      <c r="H9" s="2">
-        <v>71</v>
-      </c>
-      <c r="I9" s="2">
-        <v>13</v>
-      </c>
-      <c r="J9" s="2">
-        <v>10</v>
-      </c>
-      <c r="K9" s="2">
-        <v>81</v>
-      </c>
-      <c r="L9" s="2">
-        <v>1288</v>
-      </c>
-      <c r="M9" s="2">
-        <v>3431</v>
-      </c>
-      <c r="N9" s="2">
-        <v>18503</v>
-      </c>
-      <c r="O9" s="7"/>
-    </row>
-    <row r="10" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2">
-        <v>95</v>
-      </c>
-      <c r="D10" s="2">
-        <v>538</v>
-      </c>
-      <c r="E10" s="2">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2">
-        <v>101</v>
-      </c>
-      <c r="G10" s="2">
-        <v>36</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="G11" s="2">
         <v>1</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>89</v>
-      </c>
-      <c r="M10" s="2">
-        <v>171</v>
-      </c>
-      <c r="N10" s="2">
-        <v>1043</v>
-      </c>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2">
-        <v>152</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1126</v>
-      </c>
-      <c r="E11" s="2">
-        <v>19</v>
-      </c>
-      <c r="F11" s="2">
-        <v>139</v>
-      </c>
-      <c r="G11" s="2">
-        <v>56</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
       </c>
       <c r="I11" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="2">
+        <v>32</v>
+      </c>
+      <c r="L11" s="2">
+        <v>78</v>
+      </c>
+      <c r="M11" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2">
+        <v>125</v>
+      </c>
+      <c r="C12" s="2">
+        <v>533</v>
+      </c>
+      <c r="D12" s="2">
+        <v>23</v>
+      </c>
+      <c r="E12" s="2">
+        <v>61</v>
+      </c>
+      <c r="F12" s="2">
+        <v>34</v>
+      </c>
+      <c r="G12" s="2">
         <v>2</v>
-      </c>
-      <c r="L11" s="2">
-        <v>186</v>
-      </c>
-      <c r="M11" s="2">
-        <v>378</v>
-      </c>
-      <c r="N11" s="2">
-        <v>2062</v>
-      </c>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="2">
-        <v>104</v>
-      </c>
-      <c r="D12" s="2">
-        <v>122</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2</v>
-      </c>
-      <c r="F12" s="2">
-        <v>24</v>
-      </c>
-      <c r="G12" s="2">
-        <v>10</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
       </c>
       <c r="I12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K12" s="2">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="L12" s="2">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="M12" s="2">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2">
+        <v>890</v>
+      </c>
+      <c r="C13" s="2">
+        <v>538</v>
+      </c>
+      <c r="D13" s="2">
+        <v>63</v>
+      </c>
+      <c r="E13" s="2">
+        <v>149</v>
+      </c>
+      <c r="F13" s="2">
+        <v>44</v>
+      </c>
+      <c r="G13" s="2">
+        <v>19</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>3</v>
+      </c>
+      <c r="K13" s="2">
         <v>78</v>
       </c>
-      <c r="N12" s="2">
-        <v>376</v>
-      </c>
-      <c r="O12" s="7"/>
-    </row>
-    <row r="13" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2">
-        <v>125</v>
-      </c>
-      <c r="D13" s="2">
-        <v>533</v>
-      </c>
-      <c r="E13" s="2">
-        <v>23</v>
-      </c>
-      <c r="F13" s="2">
-        <v>61</v>
-      </c>
-      <c r="G13" s="2">
-        <v>34</v>
-      </c>
-      <c r="H13" s="2">
-        <v>2</v>
-      </c>
-      <c r="I13" s="2">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>3</v>
-      </c>
       <c r="L13" s="2">
-        <v>52</v>
+        <v>417</v>
       </c>
       <c r="M13" s="2">
-        <v>187</v>
-      </c>
-      <c r="N13" s="2">
-        <v>1021</v>
-      </c>
-      <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2">
+        <v>5995</v>
       </c>
       <c r="C14" s="2">
-        <v>890</v>
+        <v>656</v>
       </c>
       <c r="D14" s="2">
-        <v>538</v>
+        <v>229</v>
       </c>
       <c r="E14" s="2">
-        <v>63</v>
+        <v>194</v>
       </c>
       <c r="F14" s="2">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="G14" s="2">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="H14" s="2">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
@@ -1539,218 +1518,144 @@
         <v>0</v>
       </c>
       <c r="K14" s="2">
+        <v>469</v>
+      </c>
+      <c r="L14" s="2">
+        <v>332</v>
+      </c>
+      <c r="M14" s="2">
+        <v>7960</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1608</v>
+      </c>
+      <c r="C15" s="2">
+        <v>142</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5504</v>
+      </c>
+      <c r="E15" s="2">
+        <v>18</v>
+      </c>
+      <c r="F15" s="2">
+        <v>9</v>
+      </c>
+      <c r="G15" s="2">
         <v>3</v>
       </c>
-      <c r="L14" s="2">
-        <v>78</v>
-      </c>
-      <c r="M14" s="2">
-        <v>417</v>
-      </c>
-      <c r="N14" s="2">
-        <v>2201</v>
-      </c>
-      <c r="O14" s="7"/>
-    </row>
-    <row r="15" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="2">
-        <v>5995</v>
-      </c>
-      <c r="D15" s="2">
-        <v>656</v>
-      </c>
-      <c r="E15" s="2">
-        <v>229</v>
-      </c>
-      <c r="F15" s="2">
-        <v>194</v>
-      </c>
-      <c r="G15" s="2">
-        <v>72</v>
-      </c>
       <c r="H15" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2</v>
+      </c>
+      <c r="K15" s="2">
+        <v>38</v>
+      </c>
+      <c r="L15" s="2">
+        <v>58</v>
+      </c>
+      <c r="M15" s="2">
+        <v>7382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1436</v>
+      </c>
+      <c r="C16" s="2">
+        <v>256</v>
+      </c>
+      <c r="D16" s="2">
+        <v>70</v>
+      </c>
+      <c r="E16" s="2">
+        <v>61</v>
+      </c>
+      <c r="F16" s="2">
+        <v>19</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4</v>
+      </c>
+      <c r="H16" s="2">
         <v>5</v>
       </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>469</v>
-      </c>
-      <c r="M15" s="2">
-        <v>332</v>
-      </c>
-      <c r="N15" s="2">
-        <v>7960</v>
-      </c>
-      <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1608</v>
-      </c>
-      <c r="D16" s="2">
-        <v>142</v>
-      </c>
-      <c r="E16" s="2">
-        <v>5504</v>
-      </c>
-      <c r="F16" s="2">
-        <v>18</v>
-      </c>
-      <c r="G16" s="2">
-        <v>9</v>
-      </c>
-      <c r="H16" s="2">
-        <v>3</v>
-      </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K16" s="2">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="L16" s="2">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="M16" s="2">
-        <v>58</v>
-      </c>
-      <c r="N16" s="2">
-        <v>7382</v>
-      </c>
-      <c r="O16" s="7"/>
-    </row>
-    <row r="17" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3">
+        <v>13888</v>
+      </c>
+      <c r="C17" s="3">
+        <v>29445</v>
+      </c>
+      <c r="D17" s="3">
+        <v>6255</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4013</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2187</v>
+      </c>
+      <c r="G17" s="3">
+        <v>174</v>
+      </c>
+      <c r="H17" s="3">
+        <v>39</v>
+      </c>
+      <c r="I17" s="3">
         <v>19</v>
       </c>
-      <c r="C17" s="2">
-        <v>1436</v>
-      </c>
-      <c r="D17" s="2">
-        <v>256</v>
-      </c>
-      <c r="E17" s="2">
-        <v>70</v>
-      </c>
-      <c r="F17" s="2">
-        <v>61</v>
-      </c>
-      <c r="G17" s="2">
-        <v>19</v>
-      </c>
-      <c r="H17" s="2">
-        <v>4</v>
-      </c>
-      <c r="I17" s="2">
-        <v>5</v>
-      </c>
-      <c r="J17" s="2">
-        <v>2</v>
-      </c>
-      <c r="K17" s="2">
-        <v>2</v>
-      </c>
-      <c r="L17" s="2">
-        <v>91</v>
-      </c>
-      <c r="M17" s="2">
-        <v>240</v>
-      </c>
-      <c r="N17" s="2">
-        <v>2186</v>
-      </c>
-      <c r="O17" s="7"/>
-    </row>
-    <row r="18" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="3">
-        <v>13888</v>
-      </c>
-      <c r="D18" s="3">
-        <v>29445</v>
-      </c>
-      <c r="E18" s="3">
-        <v>6255</v>
-      </c>
-      <c r="F18" s="3">
-        <v>4013</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2187</v>
-      </c>
-      <c r="H18" s="3">
-        <v>174</v>
-      </c>
-      <c r="I18" s="3">
-        <v>39</v>
-      </c>
-      <c r="J18" s="3">
-        <v>19</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="J17" s="3">
         <v>117</v>
       </c>
-      <c r="L18" s="3">
+      <c r="K17" s="3">
         <v>3405</v>
       </c>
-      <c r="M18" s="3">
+      <c r="L17" s="3">
         <v>8606</v>
       </c>
-      <c r="N18" s="3">
+      <c r="M17" s="3">
         <v>68148</v>
       </c>
-      <c r="O18" s="7"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="B19:F19"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="27160ef2-b1a0-4e0b-a979-9938934b2ceb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="313f4996-b919-4f00-b21c-15f2583e5308" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009DCC8FD18B82734DA6D04F28797DC4A6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d6bdc30562d183d288a9000ae6c88d0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="27160ef2-b1a0-4e0b-a979-9938934b2ceb" xmlns:ns3="313f4996-b919-4f00-b21c-15f2583e5308" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cb1f178905c4cbe79baa28c8245f5f7a" ns2:_="" ns3:_="">
     <xsd:import namespace="27160ef2-b1a0-4e0b-a979-9938934b2ceb"/>
@@ -1979,6 +1884,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="27160ef2-b1a0-4e0b-a979-9938934b2ceb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="313f4996-b919-4f00-b21c-15f2583e5308" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1989,23 +1905,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8403BFC-6E54-4D0D-A702-4D72CE36E144}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="313f4996-b919-4f00-b21c-15f2583e5308"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="27160ef2-b1a0-4e0b-a979-9938934b2ceb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC4C0838-1CB7-4198-8E9E-5BC8A3C933B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2024,6 +1923,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8403BFC-6E54-4D0D-A702-4D72CE36E144}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="313f4996-b919-4f00-b21c-15f2583e5308"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="27160ef2-b1a0-4e0b-a979-9938934b2ceb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45F21D88-B11D-4C29-BEE1-886B9896BC56}">
   <ds:schemaRefs>

--- a/Back_end_python/db/etnia.xlsx
+++ b/Back_end_python/db/etnia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenin\Documents\GitHub\Proyecto_python\Back_end_python\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0759E2-91D2-425D-9681-8D9040754421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8EBF89-7BF1-4C93-AF1E-D42DF5CED9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>Censo de Población y Vivienda El Salvador 2024</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>Nacional</t>
-  </si>
-  <si>
-    <t>Fuente: Banco Central de Reserva de El Salvador</t>
   </si>
   <si>
     <t>Lenca</t>
@@ -145,7 +142,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,13 +177,6 @@
       <name val="Museo Sans 300"/>
       <family val="3"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Museo Sans 100"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -208,7 +198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -230,15 +220,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -250,7 +231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -258,7 +239,7 @@
     <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -272,9 +253,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -611,17 +589,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67883E6A-A596-4606-9DF4-34E6C845957F}">
-  <dimension ref="B1:AU19"/>
+  <dimension ref="B1:AU18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -634,9 +612,9 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="2:47" ht="41.25" customHeight="1">
+    <row r="2" spans="2:47" ht="41.25" customHeight="1" thickBot="1">
       <c r="B2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -684,7 +662,7 @@
       <c r="AT2" s="5"/>
       <c r="AU2" s="5"/>
     </row>
-    <row r="3" spans="2:47" ht="33" customHeight="1">
+    <row r="3" spans="2:47" ht="33" customHeight="1" thickTop="1" thickBot="1">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -957,20 +935,10 @@
         <v>5843394</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -980,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCA4D42-C694-440B-B99B-0C188CD7D2E2}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:M18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -999,34 +967,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>4</v>
@@ -1656,6 +1624,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="27160ef2-b1a0-4e0b-a979-9938934b2ceb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="313f4996-b919-4f00-b21c-15f2583e5308" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009DCC8FD18B82734DA6D04F28797DC4A6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d6bdc30562d183d288a9000ae6c88d0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="27160ef2-b1a0-4e0b-a979-9938934b2ceb" xmlns:ns3="313f4996-b919-4f00-b21c-15f2583e5308" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cb1f178905c4cbe79baa28c8245f5f7a" ns2:_="" ns3:_="">
     <xsd:import namespace="27160ef2-b1a0-4e0b-a979-9938934b2ceb"/>
@@ -1884,41 +1872,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="27160ef2-b1a0-4e0b-a979-9938934b2ceb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="313f4996-b919-4f00-b21c-15f2583e5308" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC4C0838-1CB7-4198-8E9E-5BC8A3C933B8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45F21D88-B11D-4C29-BEE1-886B9896BC56}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="27160ef2-b1a0-4e0b-a979-9938934b2ceb"/>
-    <ds:schemaRef ds:uri="313f4996-b919-4f00-b21c-15f2583e5308"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1941,9 +1898,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45F21D88-B11D-4C29-BEE1-886B9896BC56}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC4C0838-1CB7-4198-8E9E-5BC8A3C933B8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="27160ef2-b1a0-4e0b-a979-9938934b2ceb"/>
+    <ds:schemaRef ds:uri="313f4996-b919-4f00-b21c-15f2583e5308"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>